--- a/01_Input/Manual_Counts/004_Merged.xlsx
+++ b/01_Input/Manual_Counts/004_Merged.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Manual_Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/01_Input/Manual_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3CC097-D456-44BB-A1F4-0DDE61256861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D3CC097-D456-44BB-A1F4-0DDE61256861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCD81D53-F05E-4232-B78E-A122A9688768}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -136,19 +136,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,19 +342,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{456227B2-9327-4C69-ADC7-3B3C2E0845AB}" name="Tabelle27121416" displayName="Tabelle27121416" ref="A1:J37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J37" xr:uid="{456227B2-9327-4C69-ADC7-3B3C2E0845AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00EE8F41-0611-45AF-967D-9251E6655687}" name="Tabelle271214163" displayName="Tabelle271214163" ref="A1:J37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J37" xr:uid="{00EE8F41-0611-45AF-967D-9251E6655687}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3ACAF8D0-256D-4ED2-89F1-0D771BD76C3C}" name="Timestamp" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{519BC715-2ACB-4354-9480-31BA35E5209D}" name="Motorcycle (R) " dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{5CD9DA56-11F7-4207-A9CA-FAA1B6AFCD12}" name="Motorcycle (S)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{9275D2B7-A4A2-4FA6-A352-7E5ACAC7E46B}" name="LKW (R) " dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{46617034-4AB0-4C2E-A297-D8B9F5875E83}" name="LKW (S)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{8A464A71-663F-45F3-8AB2-1793983EC15D}" name="Transporter (R)" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{2066BCFD-63E6-4846-934A-0A4F2E3A6AD9}" name="Transporter (S)" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{B4B2C704-BF44-4A65-B9E1-BB7079375890}" name="PKW (R)" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{EDB9ABD0-8CE2-4607-8B0D-0D980F1EB6D1}" name="PKW (S)" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{9184D6FF-74D4-47C4-9197-8DE1E85742FE}" name="Bicycle" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AB80568E-EB85-4787-ABD6-DF333EE8470D}" name="Timestamp" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{11653AAC-7542-42E4-B21D-899DB71C9588}" name="Motorcycle (R) " dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{AB4738FD-4A33-4CA1-ACC5-50FD472845AD}" name="Motorcycle (S)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7A65465D-14A5-4242-B099-7958ECCEBD77}" name="LKW (R) " dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{7AE93061-1689-4D39-89DE-FE4AA2F0195D}" name="LKW (S)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{553ABC03-4E07-4BD8-98CD-7269934FA6E6}" name="Transporter (R)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{109C21B7-DEFE-44C1-B363-AD23B6BEA794}" name="Transporter (S)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{B8DE1B7E-2525-45AD-8994-364828F2D176}" name="PKW (R)" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{92962535-4D68-4B52-ADFC-440FC2342132}" name="PKW (S)" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{1FEFC1ED-D1E8-421C-9F93-597EAF35EB30}" name="Bicycle" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -591,7 +626,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +668,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45271.305555555555</v>
+        <v>45271.3125</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -657,7 +692,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45271.3125</v>
+        <v>45271.319444502318</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -681,7 +716,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45271.319444502318</v>
+        <v>45271.326389004629</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -705,7 +740,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45271.326389004629</v>
+        <v>45271.333333506947</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -729,7 +764,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45271.333333506947</v>
+        <v>45271.340278009258</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -753,7 +788,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45271.340278009258</v>
+        <v>45271.347222511577</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -777,7 +812,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45271.347222511577</v>
+        <v>45271.354167013887</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -801,7 +836,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45271.354167013887</v>
+        <v>45271.361111516206</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -825,7 +860,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45271.361111516206</v>
+        <v>45271.368056018517</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -848,8 +883,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45271.368056018517</v>
+      <c r="A11" s="4">
+        <v>45271.375000520835</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -872,8 +907,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45271.375000520835</v>
+      <c r="A12" s="7">
+        <v>45271.381945023146</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -896,32 +931,32 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>45377.659722222219</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="A13" s="6">
+        <v>45377.666666666664</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>11</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <v>106</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>45377.666666666664</v>
+      <c r="A14" s="2">
+        <v>45377.673611053244</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -941,7 +976,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45377.673611053244</v>
+        <v>45377.680555497682</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -961,7 +996,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45377.680555497682</v>
+        <v>45377.687499942127</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -981,7 +1016,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45377.687499942127</v>
+        <v>45377.694444386572</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1000,8 +1035,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>45377.694444386572</v>
+      <c r="A18" s="4">
+        <v>45377.701388831018</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1020,8 +1055,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45377.701388831018</v>
+      <c r="A19" s="8">
+        <v>45377.708333275463</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1040,32 +1075,32 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>45391.333333333336</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
+      <c r="A20" s="1">
+        <v>45391.340277777781</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>11</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
         <v>119</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45391.340277777781</v>
+        <v>45391.347222222219</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1085,7 +1120,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45391.347222222219</v>
+        <v>45391.354166666664</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1105,7 +1140,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45391.354166666664</v>
+        <v>45391.361111111109</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1125,7 +1160,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45391.361111111109</v>
+        <v>45391.368055555555</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1144,8 +1179,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45391.368055555555</v>
+      <c r="A25" s="9">
+        <v>45391.37499971065</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1164,32 +1199,32 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>45391.666666666664</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6">
+      <c r="A26" s="1">
+        <v>45391.673611111109</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
         <v>11</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
         <v>133</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45391.673611111109</v>
+        <v>45391.680555497682</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1209,7 +1244,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45391.680555497682</v>
+        <v>45391.687499942127</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1229,7 +1264,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45391.687499942127</v>
+        <v>45391.694444386572</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1249,7 +1284,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45391.694444386572</v>
+        <v>45391.701388831018</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1268,8 +1303,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>45391.701388831018</v>
+      <c r="A31" s="9">
+        <v>45391.708332986113</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1288,32 +1323,32 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>45391.833333333336</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6">
-        <v>2</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6">
+      <c r="A32" s="1">
+        <v>45391.840277777781</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5">
         <v>82</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45391.840277777781</v>
+        <v>45391.847222222219</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1333,7 +1368,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45391.847222222219</v>
+        <v>45391.854166666664</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1353,7 +1388,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45391.854166666664</v>
+        <v>45391.861111111109</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1373,7 +1408,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45391.861111111109</v>
+        <v>45391.868055555555</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1393,7 +1428,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45391.868055555555</v>
+        <v>45391.87499971065</v>
       </c>
       <c r="C37">
         <v>2</v>
